--- a/evaluation/results/hybrid/autoencoder/LOF/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9074733096085409</v>
+        <v>0.2330960854092527</v>
       </c>
       <c r="C2">
-        <v>0.07142857142857142</v>
+        <v>0.06100217864923747</v>
       </c>
       <c r="D2">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.07142857142857142</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="F2">
-        <v>0.07142857142857142</v>
+        <v>0.245183887915937</v>
       </c>
       <c r="G2">
-        <v>0.07142857142857142</v>
+        <v>0.6281276962899051</v>
       </c>
       <c r="H2">
-        <v>0.5113697164258961</v>
+        <v>0.7077314071696094</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="K2">
-        <v>508</v>
+        <v>103</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.951310861423221</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.951310861423221</v>
+        <v>0.1928838951310861</v>
       </c>
       <c r="D2">
-        <v>0.951310861423221</v>
+        <v>0.3233908948194663</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.07142857142857142</v>
+        <v>0.06100217864923747</v>
       </c>
       <c r="C3">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.07142857142857142</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9074733096085409</v>
+        <v>0.2330960854092527</v>
       </c>
       <c r="C4">
-        <v>0.9074733096085409</v>
+        <v>0.2330960854092527</v>
       </c>
       <c r="D4">
-        <v>0.9074733096085409</v>
+        <v>0.2330960854092527</v>
       </c>
       <c r="E4">
-        <v>0.9074733096085409</v>
+        <v>0.2330960854092527</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5113697164258962</v>
+        <v>0.5305010893246187</v>
       </c>
       <c r="C5">
-        <v>0.5113697164258962</v>
+        <v>0.596441947565543</v>
       </c>
       <c r="D5">
-        <v>0.5113697164258962</v>
+        <v>0.2191903139395072</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9074733096085409</v>
+        <v>0.9532171903953356</v>
       </c>
       <c r="C6">
-        <v>0.9074733096085409</v>
+        <v>0.2330960854092527</v>
       </c>
       <c r="D6">
-        <v>0.9074733096085409</v>
+        <v>0.313007918788723</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>508</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
